--- a/branches/riziv/StructureDefinition-BeModelMedicationRecordTreatmentLine.xlsx
+++ b/branches/riziv/StructureDefinition-BeModelMedicationRecordTreatmentLine.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$22</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="94">
   <si>
     <t>Path</t>
   </si>
@@ -137,7 +137,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record Treatment Line logical model</t>
+    <t>[Logical Model] - Treatment Line</t>
+  </si>
+  <si>
+    <t>A model for representing a Treatment Line.</t>
   </si>
   <si>
     <t>Base</t>
@@ -159,8 +162,11 @@
     <t>BeModelMedicationRecordTreatmentLine.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan)
+    <t xml:space="preserve">Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordTreatment)
 </t>
+  </si>
+  <si>
+    <t>The identifier of the treatment from which this line stems</t>
   </si>
   <si>
     <t>BeModelMedicationRecordTreatmentLine.subject</t>
@@ -170,6 +176,9 @@
 </t>
   </si>
   <si>
+    <t>For whom this treatment line was created</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordTreatmentLine.recorder</t>
   </si>
   <si>
@@ -177,6 +186,9 @@
 </t>
   </si>
   <si>
+    <t>Who created this treatment line</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordTreatmentLine.recordDate</t>
   </si>
   <si>
@@ -184,10 +196,19 @@
 </t>
   </si>
   <si>
+    <t>Datetime that the treatment line was created or updated</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordTreatmentLine.startMedicationDate</t>
   </si>
   <si>
+    <t>Start date of the medication</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordTreatmentLine.endMedicationDate</t>
+  </si>
+  <si>
+    <t>End date, if exists, for stopping the medication</t>
   </si>
   <si>
     <t>BeModelMedicationRecordTreatmentLine.originType</t>
@@ -197,7 +218,16 @@
 </t>
   </si>
   <si>
+    <t>From what context this treatment line stems</t>
+  </si>
+  <si>
+    <t>From what context this treatment line stems, whether is ambulatory prescription, patient request, etc</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordTreatmentLine.reaction</t>
+  </si>
+  <si>
+    <t>Reaction to this treatment line</t>
   </si>
   <si>
     <t>BeModelMedicationRecordTreatmentLine.product[x]</t>
@@ -207,7 +237,13 @@
 Reference(Medication)</t>
   </si>
   <si>
+    <t>Product for which the treatment line refers to</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordTreatmentLine.medicationType</t>
+  </si>
+  <si>
+    <t>What type of medication the product is: hospital, community, preparation, etc</t>
   </si>
   <si>
     <t>BeModelMedicationRecordTreatmentLine.instructionForUse</t>
@@ -217,25 +253,59 @@
 </t>
   </si>
   <si>
+    <t>Full representation of the dosage instructions</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordTreatmentLine.dosageAmount</t>
   </si>
   <si>
+    <t>Quantity to be consumed</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordTreatmentLine.periodicity</t>
   </si>
   <si>
+    <t>Scheduling for the consumption</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordTreatmentLine.route</t>
   </si>
   <si>
+    <t>Route through which the product should consumed</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordTreatmentLine.dayPeriod</t>
   </si>
   <si>
+    <t>Period of the day for consuming the product</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordTreatmentLine.lifecycleStatus</t>
   </si>
   <si>
+    <t>Status of the treatment line</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordTreatmentLine.statusReason</t>
   </si>
   <si>
+    <t>Reason the status</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordTreatmentLine.treatmentPlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Link to the 'parent' treatment - i.e the treatment that this order is derived from, or contriburing to</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordTreatmentLine.indication</t>
+  </si>
+  <si>
+    <t>Why the treatment exists</t>
   </si>
 </sst>
 </file>
@@ -384,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -403,7 +473,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="55.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.15234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -571,7 +641,9 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -621,7 +693,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -641,7 +713,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -652,7 +724,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -664,13 +736,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -721,13 +793,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -741,7 +813,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -752,7 +824,7 @@
         <v>38</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -764,10 +836,14 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -817,13 +893,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -837,7 +913,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -845,10 +921,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -860,10 +936,14 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -913,13 +993,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -933,7 +1013,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -941,10 +1021,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -956,10 +1036,14 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>55</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1009,13 +1093,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1029,7 +1113,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1037,10 +1121,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1052,10 +1136,14 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1105,13 +1193,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1125,7 +1213,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1133,10 +1221,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1148,10 +1236,14 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>60</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1201,13 +1293,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1221,7 +1313,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1232,7 +1324,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1244,10 +1336,14 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1297,13 +1393,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1317,7 +1413,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1325,10 +1421,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1340,10 +1436,14 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1393,13 +1493,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1413,7 +1513,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1436,10 +1536,14 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -1489,7 +1593,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1509,7 +1613,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1517,10 +1621,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1532,10 +1636,14 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1585,13 +1693,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1605,7 +1713,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1628,10 +1736,14 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -1681,7 +1793,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1701,7 +1813,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1724,10 +1836,14 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -1777,7 +1893,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1797,7 +1913,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1808,7 +1924,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -1820,10 +1936,14 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -1873,13 +1993,13 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -1893,7 +2013,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -1904,7 +2024,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -1916,10 +2036,14 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -1969,13 +2093,13 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
@@ -1989,7 +2113,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -1997,10 +2121,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>37</v>
@@ -2012,10 +2136,14 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2065,13 +2193,13 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
@@ -2085,7 +2213,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2108,10 +2236,14 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2161,7 +2293,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2181,7 +2313,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2189,10 +2321,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
@@ -2204,10 +2336,14 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2257,13 +2393,13 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
@@ -2277,7 +2413,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2300,10 +2436,14 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -2353,7 +2493,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
@@ -2373,7 +2513,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2384,7 +2524,7 @@
         <v>38</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>37</v>
@@ -2396,10 +2536,14 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -2449,26 +2593,126 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AH21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="G22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ21">
+  <autoFilter ref="A1:AJ22">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2478,7 +2722,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI20">
+  <conditionalFormatting sqref="A2:AI21">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
